--- a/FlipkartAutomation/Test Data/searchtextdetails.xlsx
+++ b/FlipkartAutomation/Test Data/searchtextdetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>SearchText</t>
   </si>
@@ -46,6 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,50 +388,50 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>6</v>
       </c>
     </row>
